--- a/rfuse/Archive/로컬_개별실험_v3/rfuse_thr_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/rfuse_thr_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5305</v>
+        <v>5535</v>
       </c>
       <c r="C3" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="D3" s="3">
-        <v>20200</v>
+        <v>22000</v>
       </c>
       <c r="E3" s="3">
-        <v>25500</v>
+        <v>28500</v>
       </c>
       <c r="F3" s="3">
-        <v>29200</v>
+        <v>30700</v>
       </c>
       <c r="G3" s="3">
-        <v>27600</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>3419</v>
+        <v>4313</v>
       </c>
       <c r="C8" s="3">
-        <v>7956</v>
+        <v>7723</v>
       </c>
       <c r="D8" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="E8" s="3">
-        <v>27500</v>
+        <v>140000</v>
       </c>
       <c r="F8" s="3">
-        <v>211000</v>
+        <v>218000</v>
       </c>
       <c r="G8" s="3">
-        <v>274000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7013</v>
+        <v>9941</v>
       </c>
       <c r="C13" s="3">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="D13" s="3">
-        <v>12600</v>
+        <v>15600</v>
       </c>
       <c r="E13" s="3">
-        <v>12200</v>
+        <v>17600</v>
       </c>
       <c r="F13" s="3">
-        <v>12100</v>
+        <v>19600</v>
       </c>
       <c r="G13" s="3">
-        <v>12400</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>135000</v>
+        <v>136000</v>
       </c>
       <c r="C18" s="3">
-        <v>164000</v>
+        <v>261000</v>
       </c>
       <c r="D18" s="3">
-        <v>199000</v>
+        <v>308000</v>
       </c>
       <c r="E18" s="3">
-        <v>202000</v>
+        <v>398000</v>
       </c>
       <c r="F18" s="3">
-        <v>180000</v>
+        <v>439000</v>
       </c>
       <c r="G18" s="3">
-        <v>167000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2752</v>
+        <v>2432</v>
       </c>
       <c r="C23" s="3">
-        <v>3806</v>
+        <v>3953</v>
       </c>
       <c r="D23" s="3">
-        <v>7353</v>
+        <v>7641</v>
       </c>
       <c r="E23" s="3">
-        <v>9525</v>
+        <v>8376</v>
       </c>
       <c r="F23" s="3">
-        <v>8502</v>
+        <v>8591</v>
       </c>
       <c r="G23" s="3">
-        <v>11100</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>84500</v>
+        <v>79900</v>
       </c>
       <c r="C28" s="3">
-        <v>128000</v>
+        <v>113000</v>
       </c>
       <c r="D28" s="3">
-        <v>239000</v>
+        <v>248000</v>
       </c>
       <c r="E28" s="3">
-        <v>295000</v>
+        <v>294000</v>
       </c>
       <c r="F28" s="3">
-        <v>297000</v>
+        <v>262000</v>
       </c>
       <c r="G28" s="3">
-        <v>403000</v>
+        <v>354000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5657</v>
+        <v>6872</v>
       </c>
       <c r="C33" s="3">
-        <v>7340</v>
+        <v>8789</v>
       </c>
       <c r="D33" s="3">
-        <v>8827</v>
+        <v>11300</v>
       </c>
       <c r="E33" s="3">
-        <v>9558</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>9351</v>
+        <v>12000</v>
       </c>
       <c r="G33" s="3">
-        <v>8664</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>122000</v>
+        <v>161000</v>
       </c>
       <c r="C38" s="3">
-        <v>172000</v>
+        <v>210000</v>
       </c>
       <c r="D38" s="3">
-        <v>212000</v>
+        <v>306000</v>
       </c>
       <c r="E38" s="3">
-        <v>218000</v>
+        <v>394000</v>
       </c>
       <c r="F38" s="3">
-        <v>182000</v>
+        <v>458000</v>
       </c>
       <c r="G38" s="3">
-        <v>161000</v>
+        <v>368000</v>
       </c>
     </row>
   </sheetData>
